--- a/api/Daftar Undangan.xlsx
+++ b/api/Daftar Undangan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\undangan\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609BEA52-3DF5-4FBE-9840-6EDB3607169A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F13E91-F96F-41F9-A88D-0985FE6DA994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="186">
   <si>
-    <t>Nama</t>
-  </si>
-  <si>
     <t>AXM-0201</t>
   </si>
   <si>
@@ -583,6 +580,9 @@
   </si>
   <si>
     <t>updatedBy</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -953,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -968,45 +968,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1014,13 +1014,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1028,13 +1028,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1042,13 +1042,13 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1056,13 +1056,13 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" t="s">
-        <v>13</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1070,13 +1070,13 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
         <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>15</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1084,13 +1084,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1098,13 +1098,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H9" t="s">
-        <v>20</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1112,13 +1112,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1126,13 +1126,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
         <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>27</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1154,13 +1154,13 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
         <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1168,13 +1168,13 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H14" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1182,13 +1182,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
         <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>34</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -1196,13 +1196,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" t="s">
         <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" t="s">
-        <v>36</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1224,13 +1224,13 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H18" t="s">
         <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-      <c r="H18" t="s">
-        <v>42</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -1238,13 +1238,13 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" t="s">
         <v>44</v>
-      </c>
-      <c r="C19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>45</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1252,13 +1252,13 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1266,13 +1266,13 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" t="s">
         <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" t="s">
-        <v>49</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -1280,13 +1280,13 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" t="s">
-        <v>51</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1294,13 +1294,13 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
         <v>52</v>
-      </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>53</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1308,13 +1308,13 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
         <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>55</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1322,13 +1322,13 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" t="s">
         <v>56</v>
-      </c>
-      <c r="C25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H25" t="s">
-        <v>57</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -1336,13 +1336,13 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H26" t="s">
         <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" t="s">
-        <v>59</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1350,13 +1350,13 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" t="s">
         <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" t="s">
-        <v>62</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -1364,13 +1364,13 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
         <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" t="s">
-        <v>65</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -1378,13 +1378,13 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H29" t="s">
         <v>66</v>
-      </c>
-      <c r="C29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" t="s">
-        <v>67</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -1392,13 +1392,13 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
         <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30" t="s">
-        <v>69</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -1406,13 +1406,13 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
         <v>70</v>
-      </c>
-      <c r="C31" t="s">
-        <v>3</v>
-      </c>
-      <c r="H31" t="s">
-        <v>71</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1420,13 +1420,13 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
         <v>72</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" t="s">
-        <v>73</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -1434,13 +1434,13 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
         <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" t="s">
-        <v>76</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -1448,13 +1448,13 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H34" t="s">
         <v>77</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" t="s">
-        <v>78</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1462,13 +1462,13 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
         <v>79</v>
-      </c>
-      <c r="C35" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" t="s">
-        <v>80</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -1476,13 +1476,13 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" t="s">
         <v>81</v>
-      </c>
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" t="s">
-        <v>82</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -1490,13 +1490,13 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" t="s">
         <v>83</v>
-      </c>
-      <c r="C37" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" t="s">
-        <v>84</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -1504,13 +1504,13 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" t="s">
         <v>85</v>
-      </c>
-      <c r="C38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" t="s">
-        <v>86</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -1518,13 +1518,13 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
         <v>87</v>
-      </c>
-      <c r="C39" t="s">
-        <v>3</v>
-      </c>
-      <c r="H39" t="s">
-        <v>88</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -1532,13 +1532,13 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
         <v>89</v>
-      </c>
-      <c r="C40" t="s">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s">
-        <v>90</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -1546,13 +1546,13 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+      <c r="H41" t="s">
         <v>91</v>
-      </c>
-      <c r="C41" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" t="s">
-        <v>92</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42" t="s">
         <v>93</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" t="s">
-        <v>94</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -1574,13 +1574,13 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
         <v>95</v>
-      </c>
-      <c r="C43" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" t="s">
-        <v>96</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -1588,13 +1588,13 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+      <c r="H44" t="s">
         <v>97</v>
-      </c>
-      <c r="C44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" t="s">
-        <v>98</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -1602,13 +1602,13 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" t="s">
         <v>99</v>
-      </c>
-      <c r="C45" t="s">
-        <v>43</v>
-      </c>
-      <c r="H45" t="s">
-        <v>100</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -1616,13 +1616,13 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" t="s">
+        <v>42</v>
+      </c>
+      <c r="H46" t="s">
         <v>101</v>
-      </c>
-      <c r="C46" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" t="s">
-        <v>102</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -1630,13 +1630,13 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+      <c r="H47" t="s">
         <v>103</v>
-      </c>
-      <c r="C47" t="s">
-        <v>105</v>
-      </c>
-      <c r="H47" t="s">
-        <v>104</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -1644,13 +1644,13 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="H48" t="s">
         <v>106</v>
-      </c>
-      <c r="C48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" t="s">
-        <v>107</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -1658,13 +1658,13 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
         <v>108</v>
-      </c>
-      <c r="C49" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" t="s">
-        <v>109</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
         <v>110</v>
-      </c>
-      <c r="C50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50" t="s">
-        <v>111</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -1686,13 +1686,13 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
         <v>112</v>
-      </c>
-      <c r="C51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H51" t="s">
-        <v>113</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -1700,13 +1700,13 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" t="s">
         <v>114</v>
-      </c>
-      <c r="C52" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" t="s">
-        <v>115</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -1714,13 +1714,13 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" t="s">
         <v>116</v>
-      </c>
-      <c r="C53" t="s">
-        <v>3</v>
-      </c>
-      <c r="H53" t="s">
-        <v>117</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -1728,13 +1728,13 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
         <v>118</v>
-      </c>
-      <c r="C54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" t="s">
-        <v>119</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -1742,13 +1742,13 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" t="s">
         <v>120</v>
-      </c>
-      <c r="C55" t="s">
-        <v>16</v>
-      </c>
-      <c r="H55" t="s">
-        <v>121</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -1756,13 +1756,13 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" t="s">
         <v>122</v>
-      </c>
-      <c r="C56" t="s">
-        <v>3</v>
-      </c>
-      <c r="H56" t="s">
-        <v>123</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -1770,13 +1770,13 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+      <c r="H57" t="s">
         <v>124</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" t="s">
-        <v>125</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -1784,13 +1784,13 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
         <v>126</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" t="s">
-        <v>127</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -1798,13 +1798,13 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="H59" t="s">
         <v>128</v>
-      </c>
-      <c r="C59" t="s">
-        <v>43</v>
-      </c>
-      <c r="H59" t="s">
-        <v>129</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -1812,13 +1812,13 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
         <v>130</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" t="s">
-        <v>131</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -1826,13 +1826,13 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" t="s">
         <v>132</v>
-      </c>
-      <c r="C61" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" t="s">
-        <v>133</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -1840,13 +1840,13 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+      <c r="H62" t="s">
         <v>134</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" t="s">
-        <v>135</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
         <v>136</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" t="s">
-        <v>137</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -1868,13 +1868,13 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+      <c r="H64" t="s">
         <v>138</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64" t="s">
-        <v>139</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -1882,13 +1882,13 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+      <c r="H65" t="s">
         <v>140</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" t="s">
-        <v>141</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -1896,13 +1896,13 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H66" t="s">
         <v>142</v>
-      </c>
-      <c r="C66" t="s">
-        <v>43</v>
-      </c>
-      <c r="H66" t="s">
-        <v>143</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -1910,13 +1910,13 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" t="s">
         <v>144</v>
-      </c>
-      <c r="C67" t="s">
-        <v>3</v>
-      </c>
-      <c r="H67" t="s">
-        <v>145</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -1924,13 +1924,13 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H68" t="s">
         <v>146</v>
-      </c>
-      <c r="C68" t="s">
-        <v>43</v>
-      </c>
-      <c r="H68" t="s">
-        <v>147</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -1938,13 +1938,13 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" t="s">
         <v>148</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" t="s">
-        <v>149</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -1952,13 +1952,13 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
         <v>150</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" t="s">
-        <v>151</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -1966,13 +1966,13 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" t="s">
         <v>152</v>
-      </c>
-      <c r="C71" t="s">
-        <v>16</v>
-      </c>
-      <c r="H71" t="s">
-        <v>153</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -1980,13 +1980,13 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" t="s">
         <v>154</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" t="s">
-        <v>155</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -1994,13 +1994,13 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" t="s">
         <v>156</v>
-      </c>
-      <c r="C73" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" t="s">
-        <v>157</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -2008,13 +2008,13 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H74" t="s">
         <v>158</v>
-      </c>
-      <c r="C74" t="s">
-        <v>43</v>
-      </c>
-      <c r="H74" t="s">
-        <v>159</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -2022,13 +2022,13 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
         <v>160</v>
-      </c>
-      <c r="C75" t="s">
-        <v>3</v>
-      </c>
-      <c r="H75" t="s">
-        <v>161</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -2036,13 +2036,13 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" t="s">
+        <v>42</v>
+      </c>
+      <c r="H76" t="s">
         <v>162</v>
-      </c>
-      <c r="C76" t="s">
-        <v>43</v>
-      </c>
-      <c r="H76" t="s">
-        <v>163</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -2050,13 +2050,13 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" t="s">
+        <v>104</v>
+      </c>
+      <c r="H77" t="s">
         <v>164</v>
-      </c>
-      <c r="C77" t="s">
-        <v>105</v>
-      </c>
-      <c r="H77" t="s">
-        <v>165</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -2064,13 +2064,13 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" t="s">
+        <v>42</v>
+      </c>
+      <c r="H78" t="s">
         <v>166</v>
-      </c>
-      <c r="C78" t="s">
-        <v>43</v>
-      </c>
-      <c r="H78" t="s">
-        <v>167</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -2078,13 +2078,13 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" t="s">
         <v>168</v>
-      </c>
-      <c r="C79" t="s">
-        <v>3</v>
-      </c>
-      <c r="H79" t="s">
-        <v>169</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -2092,13 +2092,13 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s">
         <v>170</v>
-      </c>
-      <c r="C80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" t="s">
-        <v>171</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -2106,13 +2106,13 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" t="s">
+        <v>173</v>
+      </c>
+      <c r="H81" t="s">
         <v>172</v>
-      </c>
-      <c r="C81" t="s">
-        <v>174</v>
-      </c>
-      <c r="H81" t="s">
-        <v>173</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -2120,13 +2120,13 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+      <c r="H82" t="s">
         <v>175</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82" t="s">
-        <v>176</v>
       </c>
       <c r="I82">
         <v>1</v>

--- a/api/Daftar Undangan.xlsx
+++ b/api/Daftar Undangan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\undangan\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F13E91-F96F-41F9-A88D-0985FE6DA994}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE3E59-BA10-43F8-AA91-2D3744F5F9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="187">
   <si>
     <t>AXM-0201</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -630,13 +633,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -953,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -999,1137 +1003,2595 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H2" t="s">
         <v>1</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H3" t="s">
         <v>4</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
+      <c r="J3" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H4" t="s">
         <v>6</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
+      <c r="J4" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
+      <c r="D5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H5" t="s">
         <v>9</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
+      <c r="J5" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
+      <c r="D6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
+      <c r="J6" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
+      <c r="D7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
+      <c r="J7" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
       </c>
+      <c r="D8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H8" t="s">
         <v>17</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
+      <c r="J8" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
         <v>2</v>
       </c>
+      <c r="D9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H9" t="s">
         <v>19</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
+      <c r="D10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H10" t="s">
         <v>21</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
+      <c r="J10" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
+      <c r="D11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H11" t="s">
         <v>23</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
+      <c r="J11" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>2</v>
       </c>
+      <c r="D12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H12" t="s">
         <v>26</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
+      <c r="J12" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H13" t="s">
         <v>28</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
+      <c r="J13" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
+      <c r="D14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H14" t="s">
         <v>30</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
+      <c r="J14" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C15" t="s">
         <v>2</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H15" t="s">
         <v>33</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
+      <c r="J15" s="4" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
+      <c r="D16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H16" t="s">
         <v>35</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C17" t="s">
         <v>39</v>
       </c>
+      <c r="D17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H17" t="s">
         <v>38</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
         <v>42</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H18" t="s">
         <v>41</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H19" t="s">
         <v>44</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
+      <c r="D20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H20" t="s">
         <v>46</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
+      <c r="D21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H21" t="s">
         <v>48</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H22" t="s">
         <v>50</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B23" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
       </c>
+      <c r="D23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H23" t="s">
         <v>52</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
       </c>
+      <c r="D24" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H24" t="s">
         <v>54</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C25" t="s">
         <v>42</v>
       </c>
+      <c r="D25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H25" t="s">
         <v>56</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
         <v>59</v>
       </c>
+      <c r="D26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H26" t="s">
         <v>58</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>62</v>
       </c>
+      <c r="D27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H27" t="s">
         <v>61</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B28" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
       </c>
+      <c r="D28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H28" t="s">
         <v>64</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
+      <c r="D29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H29" t="s">
         <v>66</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
       </c>
+      <c r="D30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H30" t="s">
         <v>68</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
       </c>
+      <c r="D31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H31" t="s">
         <v>70</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C32" t="s">
         <v>73</v>
       </c>
+      <c r="D32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H32" t="s">
         <v>72</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C33" t="s">
         <v>42</v>
       </c>
+      <c r="D33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H33" t="s">
         <v>75</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
       </c>
+      <c r="D34" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H34" t="s">
         <v>77</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
       </c>
+      <c r="D35" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H35" t="s">
         <v>79</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H36" t="s">
         <v>81</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B37" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
       </c>
+      <c r="D37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H37" t="s">
         <v>83</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B38" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
       </c>
+      <c r="D38" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H38" t="s">
         <v>85</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B39" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
       </c>
+      <c r="D39" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H39" t="s">
         <v>87</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B40" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C40" t="s">
         <v>73</v>
       </c>
+      <c r="D40" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H40" t="s">
         <v>89</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B41" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
       </c>
+      <c r="D41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H41" t="s">
         <v>91</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B42" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
+      <c r="D42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H42" t="s">
         <v>93</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B43" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
       </c>
+      <c r="D43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H43" t="s">
         <v>95</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B44" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
       </c>
+      <c r="D44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H44" t="s">
         <v>97</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B45" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C45" t="s">
         <v>42</v>
       </c>
+      <c r="D45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H45" t="s">
         <v>99</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B46" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
       </c>
+      <c r="D46" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H46" t="s">
         <v>101</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C47" t="s">
         <v>104</v>
       </c>
+      <c r="D47" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H47" t="s">
         <v>103</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B48" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
       </c>
+      <c r="D48" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H48" t="s">
         <v>106</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B49" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
       </c>
+      <c r="D49" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H49" t="s">
         <v>108</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B50" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
       </c>
+      <c r="D50" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H50" t="s">
         <v>110</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B51" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
       </c>
+      <c r="D51" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H51" t="s">
         <v>112</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B52" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
       </c>
+      <c r="D52" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H52" t="s">
         <v>114</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B53" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
       </c>
+      <c r="D53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H53" t="s">
         <v>116</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B54" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
       </c>
+      <c r="D54" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H54" t="s">
         <v>118</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B55" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C55" t="s">
         <v>15</v>
       </c>
+      <c r="D55" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H55" t="s">
         <v>120</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B56" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
       </c>
+      <c r="D56" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H56" t="s">
         <v>122</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B57" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
       </c>
+      <c r="D57" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H57" t="s">
         <v>124</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B58" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
       </c>
+      <c r="D58" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H58" t="s">
         <v>126</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B59" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C59" t="s">
         <v>42</v>
       </c>
+      <c r="D59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H59" t="s">
         <v>128</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B60" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
       </c>
+      <c r="D60" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H60" t="s">
         <v>130</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B61" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C61" t="s">
         <v>42</v>
       </c>
+      <c r="D61" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H61" t="s">
         <v>132</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B62" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
       </c>
+      <c r="D62" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H62" t="s">
         <v>134</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B63" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
       </c>
+      <c r="D63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H63" t="s">
         <v>136</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B64" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
       </c>
+      <c r="D64" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H64" t="s">
         <v>138</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B65" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
       </c>
+      <c r="D65" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H65" t="s">
         <v>140</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B66" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C66" t="s">
         <v>42</v>
       </c>
+      <c r="D66" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H66" t="s">
         <v>142</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B67" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
       </c>
+      <c r="D67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H67" t="s">
         <v>144</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B68" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C68" t="s">
         <v>42</v>
       </c>
+      <c r="D68" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H68" t="s">
         <v>146</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B69" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
       </c>
+      <c r="D69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H69" t="s">
         <v>148</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B70" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
       </c>
+      <c r="D70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H70" t="s">
         <v>150</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B71" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
       </c>
+      <c r="D71" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H71" t="s">
         <v>152</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B72" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
       </c>
+      <c r="D72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H72" t="s">
         <v>154</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B73" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
       </c>
+      <c r="D73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H73" t="s">
         <v>156</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B74" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C74" t="s">
         <v>42</v>
       </c>
+      <c r="D74" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H74" t="s">
         <v>158</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B75" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
+      <c r="D75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H75" t="s">
         <v>160</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B76" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C76" t="s">
         <v>42</v>
       </c>
+      <c r="D76" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H76" t="s">
         <v>162</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B77" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C77" t="s">
         <v>104</v>
       </c>
+      <c r="D77" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H77" t="s">
         <v>164</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B78" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C78" t="s">
         <v>42</v>
       </c>
+      <c r="D78" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H78" t="s">
         <v>166</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B79" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
       </c>
+      <c r="D79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H79" t="s">
         <v>168</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B80" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
       </c>
+      <c r="D80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H80" t="s">
         <v>170</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B81" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C81" t="s">
         <v>173</v>
       </c>
+      <c r="D81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H81" t="s">
         <v>172</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="B82" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
       </c>
+      <c r="D82" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="H82" t="s">
         <v>175</v>
       </c>
       <c r="I82">
         <v>1</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/api/Daftar Undangan.xlsx
+++ b/api/Daftar Undangan.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\undangan\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CE3E59-BA10-43F8-AA91-2D3744F5F9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03414D-D7F8-476F-8763-E0B356A93406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Miftah" sheetId="2" r:id="rId1"/>
+    <sheet name="undangan" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -25,533 +25,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="187">
-  <si>
-    <t>AXM-0201</t>
-  </si>
-  <si>
-    <t>BSP IT Family</t>
-  </si>
-  <si>
-    <t>Bandung</t>
-  </si>
-  <si>
-    <t>AXM-0202</t>
-  </si>
-  <si>
-    <t>Vivastor</t>
-  </si>
-  <si>
-    <t>AXM-0203</t>
-  </si>
-  <si>
-    <t>Ikhsan Bafadhal</t>
-  </si>
-  <si>
-    <t>Depok</t>
-  </si>
-  <si>
-    <t>AXM-0204</t>
-  </si>
-  <si>
-    <t>Widiana Juniar</t>
-  </si>
-  <si>
-    <t>Padalarang</t>
-  </si>
-  <si>
-    <t>AXM-0205</t>
-  </si>
-  <si>
-    <t>Vitraining team</t>
-  </si>
-  <si>
-    <t>AXM-0206</t>
-  </si>
-  <si>
-    <t>XWITACO</t>
-  </si>
-  <si>
-    <t>Jakarta</t>
-  </si>
-  <si>
-    <t>AXM-0207</t>
-  </si>
-  <si>
-    <t>Agung Arisandi</t>
-  </si>
-  <si>
-    <t>AXM-0208</t>
-  </si>
-  <si>
-    <t>Yusup Nur Karimah</t>
-  </si>
-  <si>
-    <t>AXM-0209</t>
-  </si>
-  <si>
-    <t>Septian Adam</t>
-  </si>
-  <si>
-    <t>AXM-0210</t>
-  </si>
-  <si>
-    <t>IRMA SPN</t>
-  </si>
-  <si>
-    <t>Sarual, Petir, Nangorak</t>
-  </si>
-  <si>
-    <t>AXM-0211</t>
-  </si>
-  <si>
-    <t>Caca &amp; Amadea</t>
-  </si>
-  <si>
-    <t>AXM-0212</t>
-  </si>
-  <si>
-    <t>Heru &amp; Khalda</t>
-  </si>
-  <si>
-    <t>AXM-0213</t>
-  </si>
-  <si>
-    <t>Dede Eri &amp; istri</t>
-  </si>
-  <si>
-    <t>Majalengka</t>
-  </si>
-  <si>
-    <t>AXM-0214</t>
-  </si>
-  <si>
-    <t>Bayu &amp; istri</t>
-  </si>
-  <si>
-    <t>AXM-0215</t>
-  </si>
-  <si>
-    <t>Lutfi &amp; istri</t>
-  </si>
-  <si>
-    <t>Tasikmalaya</t>
-  </si>
-  <si>
-    <t>AXM-0216</t>
-  </si>
-  <si>
-    <t>Atep</t>
-  </si>
-  <si>
-    <t>Cicalengka</t>
-  </si>
-  <si>
-    <t>AXM-0217</t>
-  </si>
-  <si>
-    <t>Ajeng &amp; Fajar</t>
-  </si>
-  <si>
-    <t>Garut</t>
-  </si>
-  <si>
-    <t>AXM-0218</t>
-  </si>
-  <si>
-    <t>Desih &amp; suami</t>
-  </si>
-  <si>
-    <t>AXM-0219</t>
-  </si>
-  <si>
-    <t>Elma</t>
-  </si>
-  <si>
-    <t>AXM-0220</t>
-  </si>
-  <si>
-    <t>Susi &amp; suami</t>
-  </si>
-  <si>
-    <t>AXM-0221</t>
-  </si>
-  <si>
-    <t>Andi &amp; istri</t>
-  </si>
-  <si>
-    <t>AXM-0222</t>
-  </si>
-  <si>
-    <t>Wibicon team</t>
-  </si>
-  <si>
-    <t>AXM-0223</t>
-  </si>
-  <si>
-    <t>IF Widyatama 2016</t>
-  </si>
-  <si>
-    <t>AXM-0224</t>
-  </si>
-  <si>
-    <t>Alumni MTS MIFA 2015</t>
-  </si>
-  <si>
-    <t>AXM-0225</t>
-  </si>
-  <si>
-    <t>Tria &amp; suami</t>
-  </si>
-  <si>
-    <t>Bekasi</t>
-  </si>
-  <si>
-    <t>AXM-0226</t>
-  </si>
-  <si>
-    <t>Sumiati &amp; suami</t>
-  </si>
-  <si>
-    <t>Kuningan</t>
-  </si>
-  <si>
-    <t>AXM-0227</t>
-  </si>
-  <si>
-    <t>Yusuf dan Heni</t>
-  </si>
-  <si>
-    <t>AXM-0228</t>
-  </si>
-  <si>
-    <t>Rahmat dan istri</t>
-  </si>
-  <si>
-    <t>AXM-0229</t>
-  </si>
-  <si>
-    <t>Cici Novianti</t>
-  </si>
-  <si>
-    <t>AXM-0230</t>
-  </si>
-  <si>
-    <t>Deri</t>
-  </si>
-  <si>
-    <t>AXM-0231</t>
-  </si>
-  <si>
-    <t>Candra dan istri</t>
-  </si>
-  <si>
-    <t>Cikarang</t>
-  </si>
-  <si>
-    <t>AXM-0232</t>
-  </si>
-  <si>
-    <t>Rega dan Nurul</t>
-  </si>
-  <si>
-    <t>AXM-0233</t>
-  </si>
-  <si>
-    <t>Ibes</t>
-  </si>
-  <si>
-    <t>AXM-0234</t>
-  </si>
-  <si>
-    <t>Choirul Arifin dan istri</t>
-  </si>
-  <si>
-    <t>AXM-0235</t>
-  </si>
-  <si>
-    <t>Ega Kamaludin</t>
-  </si>
-  <si>
-    <t>AXM-0236</t>
-  </si>
-  <si>
-    <t>Retno dan suami</t>
-  </si>
-  <si>
-    <t>AXM-0237</t>
-  </si>
-  <si>
-    <t>Abdurrahmannesa dan istri</t>
-  </si>
-  <si>
-    <t>AXM-0238</t>
-  </si>
-  <si>
-    <t>Agus Salim dan istri</t>
-  </si>
-  <si>
-    <t>AXM-0239</t>
-  </si>
-  <si>
-    <t>Joko dan istri</t>
-  </si>
-  <si>
-    <t>AXM-0240</t>
-  </si>
-  <si>
-    <t>Fauzan dan istri</t>
-  </si>
-  <si>
-    <t>AXM-0241</t>
-  </si>
-  <si>
-    <t>Isti Novianti</t>
-  </si>
-  <si>
-    <t>AXM-0242</t>
-  </si>
-  <si>
-    <t>Firman dan istri</t>
-  </si>
-  <si>
-    <t>AXM-0243</t>
-  </si>
-  <si>
-    <t>Agus Suwerdo</t>
-  </si>
-  <si>
-    <t>AXM-0244</t>
-  </si>
-  <si>
-    <t>Leni Aprianti dan Suami</t>
-  </si>
-  <si>
-    <t>AXM-0245</t>
-  </si>
-  <si>
-    <t>Evi dan suami</t>
-  </si>
-  <si>
-    <t>AXM-0246</t>
-  </si>
-  <si>
-    <t>Wilfan Setiawan</t>
-  </si>
-  <si>
-    <t>Cianjur</t>
-  </si>
-  <si>
-    <t>AXM-0247</t>
-  </si>
-  <si>
-    <t>Tirtowanto</t>
-  </si>
-  <si>
-    <t>AXM-0248</t>
-  </si>
-  <si>
-    <t>Cecep dan istri</t>
-  </si>
-  <si>
-    <t>AXM-0249</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="245">
   <si>
     <t>Jaka Bilal</t>
   </si>
   <si>
-    <t>AXM-0250</t>
-  </si>
-  <si>
     <t>Dea</t>
   </si>
   <si>
-    <t>AXM-0251</t>
-  </si>
-  <si>
     <t>Lani Nur'aeni</t>
   </si>
   <si>
-    <t>AXM-0252</t>
-  </si>
-  <si>
     <t>Diana</t>
   </si>
   <si>
-    <t>AXM-0253</t>
-  </si>
-  <si>
     <t>Nia dan suami</t>
   </si>
   <si>
-    <t>AXM-0254</t>
-  </si>
-  <si>
     <t>Asep Rijaludin</t>
   </si>
   <si>
-    <t>AXM-0255</t>
-  </si>
-  <si>
     <t>Yusuf dan Anis</t>
   </si>
   <si>
-    <t>AXM-0256</t>
-  </si>
-  <si>
     <t>Ilham</t>
   </si>
   <si>
-    <t>AXM-0257</t>
-  </si>
-  <si>
     <t>Deni Awaludin dan istri</t>
   </si>
   <si>
-    <t>AXM-0258</t>
-  </si>
-  <si>
     <t>Sansan Sobirin</t>
   </si>
   <si>
-    <t>AXM-0259</t>
-  </si>
-  <si>
     <t>Syukron dan istri</t>
   </si>
   <si>
-    <t>AXM-0260</t>
-  </si>
-  <si>
     <t>Redi Kusmayadi dan istri</t>
   </si>
   <si>
-    <t>AXM-0261</t>
-  </si>
-  <si>
     <t>Rizal Adiguna</t>
   </si>
   <si>
-    <t>AXM-0262</t>
-  </si>
-  <si>
     <t>Husen Saeful Rahman</t>
   </si>
   <si>
-    <t>AXM-0263</t>
-  </si>
-  <si>
     <t>Mimin dan istri</t>
   </si>
   <si>
-    <t>AXM-0264</t>
-  </si>
-  <si>
     <t>Reza Adi Wibowo</t>
   </si>
   <si>
-    <t>AXM-0265</t>
-  </si>
-  <si>
     <t>Tri Azidin</t>
   </si>
   <si>
-    <t>AXM-0266</t>
-  </si>
-  <si>
     <t>Dindin dan istri</t>
   </si>
   <si>
-    <t>AXM-0267</t>
-  </si>
-  <si>
     <t>Diwan</t>
   </si>
   <si>
-    <t>AXM-0268</t>
-  </si>
-  <si>
     <t>Dela Julianti</t>
   </si>
   <si>
-    <t>AXM-0269</t>
-  </si>
-  <si>
     <t>Rijal dan Hesti</t>
   </si>
   <si>
-    <t>AXM-0270</t>
-  </si>
-  <si>
     <t>Aditya Nugraha dan istri</t>
   </si>
   <si>
-    <t>AXM-0271</t>
-  </si>
-  <si>
     <t>Arif dan istri</t>
   </si>
   <si>
-    <t>AXM-0272</t>
-  </si>
-  <si>
     <t>Fandi</t>
   </si>
   <si>
-    <t>AXM-0273</t>
-  </si>
-  <si>
     <t>Krizki</t>
   </si>
   <si>
-    <t>AXM-0274</t>
-  </si>
-  <si>
     <t>Muhammad Salafudin</t>
   </si>
   <si>
-    <t>AXM-0275</t>
-  </si>
-  <si>
     <t>Reza Recsamulia</t>
   </si>
   <si>
-    <t>AXM-0276</t>
-  </si>
-  <si>
     <t>Setiaji dan istri</t>
   </si>
   <si>
-    <t>AXM-0277</t>
-  </si>
-  <si>
     <t>Aa Cahyana</t>
   </si>
   <si>
-    <t>AXM-0278</t>
-  </si>
-  <si>
     <t>Heru Hermawan dan istri</t>
   </si>
   <si>
-    <t>AXM-0279</t>
-  </si>
-  <si>
     <t>Djoyo dan istri</t>
   </si>
   <si>
-    <t>AXM-0280</t>
-  </si>
-  <si>
     <t>Stevan dan istri</t>
   </si>
   <si>
-    <t>Bali</t>
-  </si>
-  <si>
-    <t>AXM-0281</t>
-  </si>
-  <si>
     <t>Sadriah dan Ida Sastradirja</t>
   </si>
   <si>
@@ -586,13 +157,616 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>ENH-0201</t>
+  </si>
+  <si>
+    <t>ENH-0202</t>
+  </si>
+  <si>
+    <t>ENH-0203</t>
+  </si>
+  <si>
+    <t>ENH-0204</t>
+  </si>
+  <si>
+    <t>ENH-0205</t>
+  </si>
+  <si>
+    <t>ENH-0206</t>
+  </si>
+  <si>
+    <t>ENH-0207</t>
+  </si>
+  <si>
+    <t>ENH-0208</t>
+  </si>
+  <si>
+    <t>ENH-0209</t>
+  </si>
+  <si>
+    <t>ENH-0210</t>
+  </si>
+  <si>
+    <t>ENH-0211</t>
+  </si>
+  <si>
+    <t>ENH-0212</t>
+  </si>
+  <si>
+    <t>ENH-0213</t>
+  </si>
+  <si>
+    <t>ENH-0214</t>
+  </si>
+  <si>
+    <t>ENH-0215</t>
+  </si>
+  <si>
+    <t>ENH-0216</t>
+  </si>
+  <si>
+    <t>ENH-0217</t>
+  </si>
+  <si>
+    <t>ENH-0218</t>
+  </si>
+  <si>
+    <t>ENH-0219</t>
+  </si>
+  <si>
+    <t>ENH-0220</t>
+  </si>
+  <si>
+    <t>ENH-0221</t>
+  </si>
+  <si>
+    <t>ENH-0222</t>
+  </si>
+  <si>
+    <t>ENH-0223</t>
+  </si>
+  <si>
+    <t>ENH-0224</t>
+  </si>
+  <si>
+    <t>ENH-0225</t>
+  </si>
+  <si>
+    <t>ENH-0226</t>
+  </si>
+  <si>
+    <t>ENH-0227</t>
+  </si>
+  <si>
+    <t>ENH-0228</t>
+  </si>
+  <si>
+    <t>ENH-0229</t>
+  </si>
+  <si>
+    <t>ENH-0230</t>
+  </si>
+  <si>
+    <t>ENH-0231</t>
+  </si>
+  <si>
+    <t>ENH-0232</t>
+  </si>
+  <si>
+    <t>ENH-0233</t>
+  </si>
+  <si>
+    <t>ENH-0234</t>
+  </si>
+  <si>
+    <t>ENH-0235</t>
+  </si>
+  <si>
+    <t>ENH-0236</t>
+  </si>
+  <si>
+    <t>ENH-0237</t>
+  </si>
+  <si>
+    <t>ENH-0238</t>
+  </si>
+  <si>
+    <t>ENH-0239</t>
+  </si>
+  <si>
+    <t>ENH-0240</t>
+  </si>
+  <si>
+    <t>ENH-0241</t>
+  </si>
+  <si>
+    <t>ENH-0242</t>
+  </si>
+  <si>
+    <t>ENH-0243</t>
+  </si>
+  <si>
+    <t>ENH-0244</t>
+  </si>
+  <si>
+    <t>ENH-0245</t>
+  </si>
+  <si>
+    <t>ENH-0246</t>
+  </si>
+  <si>
+    <t>ENH-0247</t>
+  </si>
+  <si>
+    <t>ENH-0248</t>
+  </si>
+  <si>
+    <t>ENH-0249</t>
+  </si>
+  <si>
+    <t>ENH-0250</t>
+  </si>
+  <si>
+    <t>ENH-0251</t>
+  </si>
+  <si>
+    <t>ENH-0252</t>
+  </si>
+  <si>
+    <t>ENH-0253</t>
+  </si>
+  <si>
+    <t>ENH-0254</t>
+  </si>
+  <si>
+    <t>ENH-0255</t>
+  </si>
+  <si>
+    <t>ENH-0256</t>
+  </si>
+  <si>
+    <t>ENH-0257</t>
+  </si>
+  <si>
+    <t>ENH-0258</t>
+  </si>
+  <si>
+    <t>ENH-0259</t>
+  </si>
+  <si>
+    <t>ENH-0260</t>
+  </si>
+  <si>
+    <t>ENH-0261</t>
+  </si>
+  <si>
+    <t>ENH-0262</t>
+  </si>
+  <si>
+    <t>ENH-0263</t>
+  </si>
+  <si>
+    <t>ENH-0264</t>
+  </si>
+  <si>
+    <t>ENH-0265</t>
+  </si>
+  <si>
+    <t>ENH-0266</t>
+  </si>
+  <si>
+    <t>ENH-0267</t>
+  </si>
+  <si>
+    <t>ENH-0268</t>
+  </si>
+  <si>
+    <t>ENH-0269</t>
+  </si>
+  <si>
+    <t>ENH-0270</t>
+  </si>
+  <si>
+    <t>ENH-0271</t>
+  </si>
+  <si>
+    <t>ENH-0272</t>
+  </si>
+  <si>
+    <t>ENH-0273</t>
+  </si>
+  <si>
+    <t>ENH-0274</t>
+  </si>
+  <si>
+    <t>ENH-0275</t>
+  </si>
+  <si>
+    <t>ENH-0276</t>
+  </si>
+  <si>
+    <t>ENH-0277</t>
+  </si>
+  <si>
+    <t>ENH-0278</t>
+  </si>
+  <si>
+    <t>ENH-0279</t>
+  </si>
+  <si>
+    <t>ENH-0280</t>
+  </si>
+  <si>
+    <t>ENH-0281</t>
+  </si>
+  <si>
+    <t>Sistem Informasi</t>
+  </si>
+  <si>
+    <t>DEDDY ANUGRAHONO</t>
+  </si>
+  <si>
+    <t>UMI FITRIATUL HAWA</t>
+  </si>
+  <si>
+    <t>YOSSY HERIS WAHYUDI</t>
+  </si>
+  <si>
+    <t>PRIAGUNG PURNOMO</t>
+  </si>
+  <si>
+    <t>AHMAD ABDUR ROHMAN</t>
+  </si>
+  <si>
+    <t>AKHMAD ZOGGA ZAKARIA</t>
+  </si>
+  <si>
+    <t>ARI SETIAWAN</t>
+  </si>
+  <si>
+    <t>AGUNG PRASETYA</t>
+  </si>
+  <si>
+    <t>DIAH WINARTI</t>
+  </si>
+  <si>
+    <t>ICHSAN TAJUDIN</t>
+  </si>
+  <si>
+    <t>ILHAM MUTTAQIN</t>
+  </si>
+  <si>
+    <t>AHMAD NURUN N</t>
+  </si>
+  <si>
+    <t>RIZKY EKANATA</t>
+  </si>
+  <si>
+    <t>AKNESYA BUDYAR</t>
+  </si>
+  <si>
+    <t>M. YUNUS SETIYO HUSODO</t>
+  </si>
+  <si>
+    <t>CAHYO BUDI SANTOSO</t>
+  </si>
+  <si>
+    <t>SULISTYO BUDI</t>
+  </si>
+  <si>
+    <t>MUHAMMAD HAKIM SETYOBUDI</t>
+  </si>
+  <si>
+    <t>DADANG PURNIANTO</t>
+  </si>
+  <si>
+    <t>ILARIUS KRISTIONO</t>
+  </si>
+  <si>
+    <t>MUKHAMAD RIDUWAN</t>
+  </si>
+  <si>
+    <t>DANI SURYANI</t>
+  </si>
+  <si>
+    <t>ARIF ABDUL AZIZ</t>
+  </si>
+  <si>
+    <t>DWI PRASETYO</t>
+  </si>
+  <si>
+    <t>ANDRIK NUR SETIAWAN</t>
+  </si>
+  <si>
+    <t>M.ICHWANUDIN</t>
+  </si>
+  <si>
+    <t>IBNU ALI FARDANI</t>
+  </si>
+  <si>
+    <t>DENNISE AMADIO SEPNING</t>
+  </si>
+  <si>
+    <t>OKTO WAJAR WIBISONO</t>
+  </si>
+  <si>
+    <t>FUAD ELEND PRAKASA</t>
+  </si>
+  <si>
+    <t>GALUH FEBRIAN SUCI ANGGRAINI</t>
+  </si>
+  <si>
+    <t>FAJAR TAUFIK</t>
+  </si>
+  <si>
+    <t>ALI MURTAFIAN</t>
+  </si>
+  <si>
+    <t>JERRY ADABI GUMELAR</t>
+  </si>
+  <si>
+    <t>PAJAR KRISTANTO</t>
+  </si>
+  <si>
+    <t>ERFAN JAUHARI</t>
+  </si>
+  <si>
+    <t>ULIL ALBAB</t>
+  </si>
+  <si>
+    <t>BOEDHI KOERNIAWAN</t>
+  </si>
+  <si>
+    <t>SARIF NGABDILAH</t>
+  </si>
+  <si>
+    <t>HEKI DIWATI PUTRA</t>
+  </si>
+  <si>
+    <t>NURUL MUKHOIRIN</t>
+  </si>
+  <si>
+    <t>RAHAYU SAFITRI</t>
+  </si>
+  <si>
+    <t>HESTI YULIANA</t>
+  </si>
+  <si>
+    <t>RAHMAD SAHLAN PRAKOSO</t>
+  </si>
+  <si>
+    <t>MOH. RYZA ANGGARA</t>
+  </si>
+  <si>
+    <t>SULUNG BOGI YUNANTO NUR</t>
+  </si>
+  <si>
+    <t>MOCH. ARIFUDIN</t>
+  </si>
+  <si>
+    <t>MOH. NURUL FAIZIN</t>
+  </si>
+  <si>
+    <t>BAKALAN</t>
+  </si>
+  <si>
+    <t>UNP</t>
+  </si>
+  <si>
+    <t>ENH-0282</t>
+  </si>
+  <si>
+    <t>ENH-0283</t>
+  </si>
+  <si>
+    <t>ENH-0284</t>
+  </si>
+  <si>
+    <t>ENH-0285</t>
+  </si>
+  <si>
+    <t>ENH-0286</t>
+  </si>
+  <si>
+    <t>ENH-0287</t>
+  </si>
+  <si>
+    <t>ENH-0288</t>
+  </si>
+  <si>
+    <t>ENH-0289</t>
+  </si>
+  <si>
+    <t>ENH-0290</t>
+  </si>
+  <si>
+    <t>ENH-0291</t>
+  </si>
+  <si>
+    <t>ENH-0292</t>
+  </si>
+  <si>
+    <t>ENH-0293</t>
+  </si>
+  <si>
+    <t>ENH-0294</t>
+  </si>
+  <si>
+    <t>ENH-0295</t>
+  </si>
+  <si>
+    <t>ENH-0296</t>
+  </si>
+  <si>
+    <t>ENH-0297</t>
+  </si>
+  <si>
+    <t>ENH-0298</t>
+  </si>
+  <si>
+    <t>ENH-0299</t>
+  </si>
+  <si>
+    <t>ENH-0300</t>
+  </si>
+  <si>
+    <t>ENH-0301</t>
+  </si>
+  <si>
+    <t>ENH-0302</t>
+  </si>
+  <si>
+    <t>ENH-0303</t>
+  </si>
+  <si>
+    <t>ENH-0304</t>
+  </si>
+  <si>
+    <t>ENH-0305</t>
+  </si>
+  <si>
+    <t>ENH-0306</t>
+  </si>
+  <si>
+    <t>ENH-0307</t>
+  </si>
+  <si>
+    <t>ENH-0308</t>
+  </si>
+  <si>
+    <t>ENH-0309</t>
+  </si>
+  <si>
+    <t>ENH-0310</t>
+  </si>
+  <si>
+    <t>ENH-0311</t>
+  </si>
+  <si>
+    <t>ENH-0312</t>
+  </si>
+  <si>
+    <t>ENH-0313</t>
+  </si>
+  <si>
+    <t>ENH-0314</t>
+  </si>
+  <si>
+    <t>ENH-0315</t>
+  </si>
+  <si>
+    <t>ENH-0316</t>
+  </si>
+  <si>
+    <t>ENH-0317</t>
+  </si>
+  <si>
+    <t>ENH-0318</t>
+  </si>
+  <si>
+    <t>ENH-0319</t>
+  </si>
+  <si>
+    <t>ENH-0320</t>
+  </si>
+  <si>
+    <t>ENH-0321</t>
+  </si>
+  <si>
+    <t>ENH-0322</t>
+  </si>
+  <si>
+    <t>ENH-0323</t>
+  </si>
+  <si>
+    <t>ENH-0324</t>
+  </si>
+  <si>
+    <t>ENH-0325</t>
+  </si>
+  <si>
+    <t>ENH-0326</t>
+  </si>
+  <si>
+    <t>ENH-0327</t>
+  </si>
+  <si>
+    <t>ENH-0328</t>
+  </si>
+  <si>
+    <t>ENH-0329</t>
+  </si>
+  <si>
+    <t>ENH-0330</t>
+  </si>
+  <si>
+    <t>ENH-0331</t>
+  </si>
+  <si>
+    <t>ENH-0332</t>
+  </si>
+  <si>
+    <t>ENH-0333</t>
+  </si>
+  <si>
+    <t>ENH-0334</t>
+  </si>
+  <si>
+    <t>ENH-0335</t>
+  </si>
+  <si>
+    <t>ENH-0336</t>
+  </si>
+  <si>
+    <t>ENH-0337</t>
+  </si>
+  <si>
+    <t>ENH-0338</t>
+  </si>
+  <si>
+    <t>ENH-0339</t>
+  </si>
+  <si>
+    <t>ENH-0340</t>
+  </si>
+  <si>
+    <t>ENH-0341</t>
+  </si>
+  <si>
+    <t>ENH-0342</t>
+  </si>
+  <si>
+    <t>ENH-0343</t>
+  </si>
+  <si>
+    <t>ENH-0344</t>
+  </si>
+  <si>
+    <t>ENH-0345</t>
+  </si>
+  <si>
+    <t>ENH-0346</t>
+  </si>
+  <si>
+    <t>ENH-0347</t>
+  </si>
+  <si>
+    <t>ENH-0348</t>
+  </si>
+  <si>
+    <t>ENH-0349</t>
+  </si>
+  <si>
+    <t>ENH-0350</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -611,6 +785,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -955,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J82"/>
+  <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J80" sqref="J80"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -972,2629 +1152,4424 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>177</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>178</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>179</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>180</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>6</v>
+        <v>128</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>131</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>139</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>125</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H18" t="s">
-        <v>41</v>
+        <v>142</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>144</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>147</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>152</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>154</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H35" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H36" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H37" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H40" t="s">
-        <v>89</v>
+        <v>164</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H41" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H42" t="s">
-        <v>93</v>
+        <v>166</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H43" t="s">
-        <v>95</v>
+        <v>167</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H45" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H46" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H47" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C48" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H48" t="s">
-        <v>106</v>
+        <v>172</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C49" t="s">
-        <v>2</v>
+        <v>125</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H49" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H50" t="s">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C51" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H51" t="s">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H52" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H52" t="s">
-        <v>114</v>
-      </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H53" t="s">
-        <v>116</v>
+        <v>3</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>174</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H55" t="s">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H56" t="s">
-        <v>122</v>
+        <v>6</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C57" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H57" t="s">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H58" t="s">
-        <v>126</v>
+        <v>8</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H59" t="s">
-        <v>128</v>
+        <v>9</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H60" t="s">
-        <v>130</v>
+        <v>10</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="C61" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H61" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H62" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H63" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C64" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H64" t="s">
-        <v>138</v>
+        <v>14</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H65" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H66" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H67" t="s">
-        <v>144</v>
+        <v>17</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H68" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H69" t="s">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>149</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H70" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>151</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H71" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="C72" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="C73" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H73" t="s">
-        <v>156</v>
+        <v>23</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C74" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="C75" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H75" t="s">
-        <v>160</v>
+        <v>25</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H76" t="s">
-        <v>162</v>
+        <v>26</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>163</v>
+        <v>119</v>
       </c>
       <c r="C77" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H77" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>165</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H78" t="s">
-        <v>166</v>
+        <v>28</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H79" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>169</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>2</v>
+        <v>175</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H80" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="C81" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82" t="s">
+        <v>175</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H82" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C82" t="s">
-        <v>2</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="H82" t="s">
-        <v>175</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>186</v>
+      <c r="D93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G144" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F146" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G147" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>

--- a/api/Daftar Undangan.xlsx
+++ b/api/Daftar Undangan.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\undangan\api\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF03414D-D7F8-476F-8763-E0B356A93406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A91BE4C-241F-4844-BD95-DA1BF9E40C5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="undangan" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">undangan!$A$1:$J$1</definedName>
+  </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -25,106 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="245">
-  <si>
-    <t>Jaka Bilal</t>
-  </si>
-  <si>
-    <t>Dea</t>
-  </si>
-  <si>
-    <t>Lani Nur'aeni</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Nia dan suami</t>
-  </si>
-  <si>
-    <t>Asep Rijaludin</t>
-  </si>
-  <si>
-    <t>Yusuf dan Anis</t>
-  </si>
-  <si>
-    <t>Ilham</t>
-  </si>
-  <si>
-    <t>Deni Awaludin dan istri</t>
-  </si>
-  <si>
-    <t>Sansan Sobirin</t>
-  </si>
-  <si>
-    <t>Syukron dan istri</t>
-  </si>
-  <si>
-    <t>Redi Kusmayadi dan istri</t>
-  </si>
-  <si>
-    <t>Rizal Adiguna</t>
-  </si>
-  <si>
-    <t>Husen Saeful Rahman</t>
-  </si>
-  <si>
-    <t>Mimin dan istri</t>
-  </si>
-  <si>
-    <t>Reza Adi Wibowo</t>
-  </si>
-  <si>
-    <t>Tri Azidin</t>
-  </si>
-  <si>
-    <t>Dindin dan istri</t>
-  </si>
-  <si>
-    <t>Diwan</t>
-  </si>
-  <si>
-    <t>Dela Julianti</t>
-  </si>
-  <si>
-    <t>Rijal dan Hesti</t>
-  </si>
-  <si>
-    <t>Aditya Nugraha dan istri</t>
-  </si>
-  <si>
-    <t>Arif dan istri</t>
-  </si>
-  <si>
-    <t>Fandi</t>
-  </si>
-  <si>
-    <t>Krizki</t>
-  </si>
-  <si>
-    <t>Muhammad Salafudin</t>
-  </si>
-  <si>
-    <t>Reza Recsamulia</t>
-  </si>
-  <si>
-    <t>Setiaji dan istri</t>
-  </si>
-  <si>
-    <t>Aa Cahyana</t>
-  </si>
-  <si>
-    <t>Heru Hermawan dan istri</t>
-  </si>
-  <si>
-    <t>Djoyo dan istri</t>
-  </si>
-  <si>
-    <t>Stevan dan istri</t>
-  </si>
-  <si>
-    <t>Sadriah dan Ida Sastradirja</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="483">
   <si>
     <t>attendedAt</t>
   </si>
@@ -417,9 +321,6 @@
     <t>PRIAGUNG PURNOMO</t>
   </si>
   <si>
-    <t>AHMAD ABDUR ROHMAN</t>
-  </si>
-  <si>
     <t>AKHMAD ZOGGA ZAKARIA</t>
   </si>
   <si>
@@ -480,15 +381,9 @@
     <t>ANDRIK NUR SETIAWAN</t>
   </si>
   <si>
-    <t>M.ICHWANUDIN</t>
-  </si>
-  <si>
     <t>IBNU ALI FARDANI</t>
   </si>
   <si>
-    <t>DENNISE AMADIO SEPNING</t>
-  </si>
-  <si>
     <t>OKTO WAJAR WIBISONO</t>
   </si>
   <si>
@@ -537,24 +432,6 @@
     <t>RAHMAD SAHLAN PRAKOSO</t>
   </si>
   <si>
-    <t>MOH. RYZA ANGGARA</t>
-  </si>
-  <si>
-    <t>SULUNG BOGI YUNANTO NUR</t>
-  </si>
-  <si>
-    <t>MOCH. ARIFUDIN</t>
-  </si>
-  <si>
-    <t>MOH. NURUL FAIZIN</t>
-  </si>
-  <si>
-    <t>BAKALAN</t>
-  </si>
-  <si>
-    <t>UNP</t>
-  </si>
-  <si>
     <t>ENH-0282</t>
   </si>
   <si>
@@ -760,6 +637,846 @@
   </si>
   <si>
     <t>ENH-0350</t>
+  </si>
+  <si>
+    <t>SARWANI</t>
+  </si>
+  <si>
+    <t>ENH-0351</t>
+  </si>
+  <si>
+    <t>ENH-0352</t>
+  </si>
+  <si>
+    <t>ENH-0353</t>
+  </si>
+  <si>
+    <t>ENH-0354</t>
+  </si>
+  <si>
+    <t>ENH-0355</t>
+  </si>
+  <si>
+    <t>ENH-0356</t>
+  </si>
+  <si>
+    <t>ENH-0357</t>
+  </si>
+  <si>
+    <t>ENH-0358</t>
+  </si>
+  <si>
+    <t>ENH-0359</t>
+  </si>
+  <si>
+    <t>ENH-0360</t>
+  </si>
+  <si>
+    <t>ENH-0361</t>
+  </si>
+  <si>
+    <t>ENH-0362</t>
+  </si>
+  <si>
+    <t>ENH-0363</t>
+  </si>
+  <si>
+    <t>ENH-0364</t>
+  </si>
+  <si>
+    <t>ENH-0365</t>
+  </si>
+  <si>
+    <t>ENH-0366</t>
+  </si>
+  <si>
+    <t>ENH-0367</t>
+  </si>
+  <si>
+    <t>ENH-0368</t>
+  </si>
+  <si>
+    <t>ENH-0369</t>
+  </si>
+  <si>
+    <t>ENH-0370</t>
+  </si>
+  <si>
+    <t>ENH-0371</t>
+  </si>
+  <si>
+    <t>ENH-0372</t>
+  </si>
+  <si>
+    <t>ENH-0373</t>
+  </si>
+  <si>
+    <t>ENH-0374</t>
+  </si>
+  <si>
+    <t>ENH-0375</t>
+  </si>
+  <si>
+    <t>ENH-0376</t>
+  </si>
+  <si>
+    <t>ENH-0377</t>
+  </si>
+  <si>
+    <t>ENH-0378</t>
+  </si>
+  <si>
+    <t>ENH-0379</t>
+  </si>
+  <si>
+    <t>ENH-0380</t>
+  </si>
+  <si>
+    <t>ENH-0381</t>
+  </si>
+  <si>
+    <t>ENH-0382</t>
+  </si>
+  <si>
+    <t>ENH-0383</t>
+  </si>
+  <si>
+    <t>ENH-0384</t>
+  </si>
+  <si>
+    <t>ENH-0385</t>
+  </si>
+  <si>
+    <t>ENH-0386</t>
+  </si>
+  <si>
+    <t>ENH-0387</t>
+  </si>
+  <si>
+    <t>ENH-0388</t>
+  </si>
+  <si>
+    <t>ENH-0389</t>
+  </si>
+  <si>
+    <t>ENH-0390</t>
+  </si>
+  <si>
+    <t>ENH-0391</t>
+  </si>
+  <si>
+    <t>ENH-0392</t>
+  </si>
+  <si>
+    <t>ENH-0393</t>
+  </si>
+  <si>
+    <t>ENH-0394</t>
+  </si>
+  <si>
+    <t>ENH-0395</t>
+  </si>
+  <si>
+    <t>ENH-0396</t>
+  </si>
+  <si>
+    <t>ENH-0397</t>
+  </si>
+  <si>
+    <t>ENH-0398</t>
+  </si>
+  <si>
+    <t>ENH-0399</t>
+  </si>
+  <si>
+    <t>ENH-0400</t>
+  </si>
+  <si>
+    <t>AGUNG DWI MULYONO</t>
+  </si>
+  <si>
+    <t>SUPRIYANTO</t>
+  </si>
+  <si>
+    <t>ANDRIK IRFANI</t>
+  </si>
+  <si>
+    <t>BAMBANG KRISTANTO</t>
+  </si>
+  <si>
+    <t>RINO</t>
+  </si>
+  <si>
+    <t>USWATUN KHASANAH (UUS)</t>
+  </si>
+  <si>
+    <t>TITIK DWI NUR HAYATI</t>
+  </si>
+  <si>
+    <t>OLIVIA NOVITASARI</t>
+  </si>
+  <si>
+    <t>WAHYU NUR LEILA</t>
+  </si>
+  <si>
+    <t>PRAYOGA</t>
+  </si>
+  <si>
+    <t>ROBI</t>
+  </si>
+  <si>
+    <t>HELMY IMAMI KHUSNA</t>
+  </si>
+  <si>
+    <t>DIANA SETYAWATI</t>
+  </si>
+  <si>
+    <t>DANANG AGIL P</t>
+  </si>
+  <si>
+    <t>AVINDA R A</t>
+  </si>
+  <si>
+    <t>ZAINAL MUSTOFA SEKALIAN</t>
+  </si>
+  <si>
+    <t>NURUL MUBAROKAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WILLY AGUSTINO </t>
+  </si>
+  <si>
+    <t>FITRI</t>
+  </si>
+  <si>
+    <t>KHUSNUL</t>
+  </si>
+  <si>
+    <t>LISNAWATI</t>
+  </si>
+  <si>
+    <t>RIBUT</t>
+  </si>
+  <si>
+    <t>INDRA SETYARINI</t>
+  </si>
+  <si>
+    <t>EKO APRIL</t>
+  </si>
+  <si>
+    <t>HUDA</t>
+  </si>
+  <si>
+    <t>LUQMAN HAKIM SEKALIAN</t>
+  </si>
+  <si>
+    <t>KHOSIM</t>
+  </si>
+  <si>
+    <t>KSR UNP</t>
+  </si>
+  <si>
+    <t>UNP KEDIRI</t>
+  </si>
+  <si>
+    <t>WINDA RAHAYU</t>
+  </si>
+  <si>
+    <t>SHINTA</t>
+  </si>
+  <si>
+    <t>TRI</t>
+  </si>
+  <si>
+    <t>RIZKY OKTAVIANIK</t>
+  </si>
+  <si>
+    <t>LAILATUL QODRIYAH</t>
+  </si>
+  <si>
+    <t>KHOIRUN NISAK</t>
+  </si>
+  <si>
+    <t>MIFTA</t>
+  </si>
+  <si>
+    <t>RETNO SANTIKA DEWI</t>
+  </si>
+  <si>
+    <t>SAMSUL AMIN</t>
+  </si>
+  <si>
+    <t>RATNUSWANTORO</t>
+  </si>
+  <si>
+    <t>BUDI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISNAN </t>
+  </si>
+  <si>
+    <t>BERTO</t>
+  </si>
+  <si>
+    <t>ALI AL IRSYAD</t>
+  </si>
+  <si>
+    <t>ANANDA ANASRULLOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANAM </t>
+  </si>
+  <si>
+    <t>TKJ</t>
+  </si>
+  <si>
+    <t>SUKRON MAKMUN</t>
+  </si>
+  <si>
+    <t>AHMAD BADIUS</t>
+  </si>
+  <si>
+    <t>WISNU ROMADHON</t>
+  </si>
+  <si>
+    <t>RATNA</t>
+  </si>
+  <si>
+    <t>PMR SMK</t>
+  </si>
+  <si>
+    <t>AYU</t>
+  </si>
+  <si>
+    <t>BAYU</t>
+  </si>
+  <si>
+    <t>CAHYO</t>
+  </si>
+  <si>
+    <t>MUHYI IRMAWAN</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>SAMSUL ARIFIN</t>
+  </si>
+  <si>
+    <t>BASTIAN</t>
+  </si>
+  <si>
+    <t>IRWAN RUBAI</t>
+  </si>
+  <si>
+    <t>EDI SANTOSO</t>
+  </si>
+  <si>
+    <t>JAYEN</t>
+  </si>
+  <si>
+    <t>MASHUDI</t>
+  </si>
+  <si>
+    <t>TINA</t>
+  </si>
+  <si>
+    <t>YANTI</t>
+  </si>
+  <si>
+    <t>NINDI</t>
+  </si>
+  <si>
+    <t>BENI</t>
+  </si>
+  <si>
+    <t>ROFIQ</t>
+  </si>
+  <si>
+    <t>TINO</t>
+  </si>
+  <si>
+    <t>ADIT</t>
+  </si>
+  <si>
+    <t>ANDRI</t>
+  </si>
+  <si>
+    <t>DIAN</t>
+  </si>
+  <si>
+    <t>MAKELAR SBT</t>
+  </si>
+  <si>
+    <t>NANANG ELI</t>
+  </si>
+  <si>
+    <t>PUTRI</t>
+  </si>
+  <si>
+    <t>ENH-0401</t>
+  </si>
+  <si>
+    <t>ENH-0402</t>
+  </si>
+  <si>
+    <t>ENH-0403</t>
+  </si>
+  <si>
+    <t>ENH-0404</t>
+  </si>
+  <si>
+    <t>ENH-0405</t>
+  </si>
+  <si>
+    <t>ENH-0406</t>
+  </si>
+  <si>
+    <t>ENH-0407</t>
+  </si>
+  <si>
+    <t>ENH-0408</t>
+  </si>
+  <si>
+    <t>ENH-0409</t>
+  </si>
+  <si>
+    <t>ENH-0410</t>
+  </si>
+  <si>
+    <t>ENH-0411</t>
+  </si>
+  <si>
+    <t>ENH-0412</t>
+  </si>
+  <si>
+    <t>ENH-0413</t>
+  </si>
+  <si>
+    <t>ENH-0414</t>
+  </si>
+  <si>
+    <t>ENH-0415</t>
+  </si>
+  <si>
+    <t>ENH-0416</t>
+  </si>
+  <si>
+    <t>ENH-0417</t>
+  </si>
+  <si>
+    <t>ENH-0418</t>
+  </si>
+  <si>
+    <t>ENH-0419</t>
+  </si>
+  <si>
+    <t>ENH-0420</t>
+  </si>
+  <si>
+    <t>ENH-0421</t>
+  </si>
+  <si>
+    <t>ENH-0422</t>
+  </si>
+  <si>
+    <t>ENH-0423</t>
+  </si>
+  <si>
+    <t>ENH-0424</t>
+  </si>
+  <si>
+    <t>ENH-0425</t>
+  </si>
+  <si>
+    <t>ENH-0426</t>
+  </si>
+  <si>
+    <t>ENH-0427</t>
+  </si>
+  <si>
+    <t>ENH-0428</t>
+  </si>
+  <si>
+    <t>ENH-0429</t>
+  </si>
+  <si>
+    <t>ENH-0430</t>
+  </si>
+  <si>
+    <t>ENH-0431</t>
+  </si>
+  <si>
+    <t>ENH-0432</t>
+  </si>
+  <si>
+    <t>ENH-0433</t>
+  </si>
+  <si>
+    <t>ENH-0434</t>
+  </si>
+  <si>
+    <t>ENH-0435</t>
+  </si>
+  <si>
+    <t>ENH-0436</t>
+  </si>
+  <si>
+    <t>ENH-0437</t>
+  </si>
+  <si>
+    <t>ENH-0438</t>
+  </si>
+  <si>
+    <t>ENH-0439</t>
+  </si>
+  <si>
+    <t>ENH-0440</t>
+  </si>
+  <si>
+    <t>ENH-0441</t>
+  </si>
+  <si>
+    <t>ENH-0442</t>
+  </si>
+  <si>
+    <t>ENH-0443</t>
+  </si>
+  <si>
+    <t>ENH-0444</t>
+  </si>
+  <si>
+    <t>ENH-0445</t>
+  </si>
+  <si>
+    <t>ENH-0446</t>
+  </si>
+  <si>
+    <t>ENH-0447</t>
+  </si>
+  <si>
+    <t>ENH-0448</t>
+  </si>
+  <si>
+    <t>ENH-0449</t>
+  </si>
+  <si>
+    <t>ENH-0450</t>
+  </si>
+  <si>
+    <t>ENH-0451</t>
+  </si>
+  <si>
+    <t>ENH-0452</t>
+  </si>
+  <si>
+    <t>ENH-0453</t>
+  </si>
+  <si>
+    <t>ENH-0454</t>
+  </si>
+  <si>
+    <t>ENH-0455</t>
+  </si>
+  <si>
+    <t>ENH-0456</t>
+  </si>
+  <si>
+    <t>ENH-0457</t>
+  </si>
+  <si>
+    <t>ENH-0458</t>
+  </si>
+  <si>
+    <t>ENH-0459</t>
+  </si>
+  <si>
+    <t>ENH-0460</t>
+  </si>
+  <si>
+    <t>ENH-0461</t>
+  </si>
+  <si>
+    <t>ENH-0462</t>
+  </si>
+  <si>
+    <t>ENH-0463</t>
+  </si>
+  <si>
+    <t>ENH-0464</t>
+  </si>
+  <si>
+    <t>ENH-0465</t>
+  </si>
+  <si>
+    <t>ENH-0466</t>
+  </si>
+  <si>
+    <t>ENH-0467</t>
+  </si>
+  <si>
+    <t>ENH-0468</t>
+  </si>
+  <si>
+    <t>ENH-0469</t>
+  </si>
+  <si>
+    <t>ENH-0470</t>
+  </si>
+  <si>
+    <t>ENH-0471</t>
+  </si>
+  <si>
+    <t>ENH-0472</t>
+  </si>
+  <si>
+    <t>ENH-0473</t>
+  </si>
+  <si>
+    <t>ENH-0474</t>
+  </si>
+  <si>
+    <t>ENH-0475</t>
+  </si>
+  <si>
+    <t>ENH-0476</t>
+  </si>
+  <si>
+    <t>ENH-0477</t>
+  </si>
+  <si>
+    <t>ENH-0478</t>
+  </si>
+  <si>
+    <t>ENH-0479</t>
+  </si>
+  <si>
+    <t>ENH-0480</t>
+  </si>
+  <si>
+    <t>ENH-0481</t>
+  </si>
+  <si>
+    <t>ENH-0482</t>
+  </si>
+  <si>
+    <t>ENH-0483</t>
+  </si>
+  <si>
+    <t>ENH-0484</t>
+  </si>
+  <si>
+    <t>ENH-0485</t>
+  </si>
+  <si>
+    <t>ENH-0486</t>
+  </si>
+  <si>
+    <t>ENH-0487</t>
+  </si>
+  <si>
+    <t>ENH-0488</t>
+  </si>
+  <si>
+    <t>ENH-0489</t>
+  </si>
+  <si>
+    <t>ENH-0490</t>
+  </si>
+  <si>
+    <t>ENH-0491</t>
+  </si>
+  <si>
+    <t>ENH-0492</t>
+  </si>
+  <si>
+    <t>ENH-0493</t>
+  </si>
+  <si>
+    <t>ENH-0494</t>
+  </si>
+  <si>
+    <t>ENH-0495</t>
+  </si>
+  <si>
+    <t>ENH-0496</t>
+  </si>
+  <si>
+    <t>ENH-0497</t>
+  </si>
+  <si>
+    <t>ENH-0498</t>
+  </si>
+  <si>
+    <t>ENH-0499</t>
+  </si>
+  <si>
+    <t>ENH-0500</t>
+  </si>
+  <si>
+    <t>IMAM</t>
+  </si>
+  <si>
+    <t>HERU</t>
+  </si>
+  <si>
+    <t>HAIKAL</t>
+  </si>
+  <si>
+    <t>ADI</t>
+  </si>
+  <si>
+    <t>ALFI</t>
+  </si>
+  <si>
+    <t>BAHRUL</t>
+  </si>
+  <si>
+    <t>DARMA</t>
+  </si>
+  <si>
+    <t>HASAN</t>
+  </si>
+  <si>
+    <t>JOSHUA</t>
+  </si>
+  <si>
+    <t>RANGGA</t>
+  </si>
+  <si>
+    <t>SAYFUDIN</t>
+  </si>
+  <si>
+    <t>YUKAS</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>ARIEF</t>
+  </si>
+  <si>
+    <t>ANI</t>
+  </si>
+  <si>
+    <t>RIA</t>
+  </si>
+  <si>
+    <t>SETYO</t>
+  </si>
+  <si>
+    <t>SIGRO</t>
+  </si>
+  <si>
+    <t>BASUKI</t>
+  </si>
+  <si>
+    <t>FEBRI</t>
+  </si>
+  <si>
+    <t>GUNAWAN</t>
+  </si>
+  <si>
+    <t>IBNU</t>
+  </si>
+  <si>
+    <t>LUKI</t>
+  </si>
+  <si>
+    <t>RIDHO SEKALIAN</t>
+  </si>
+  <si>
+    <t>ZENIAROTUL</t>
+  </si>
+  <si>
+    <t>DONI</t>
+  </si>
+  <si>
+    <t>JOHAN</t>
+  </si>
+  <si>
+    <t>AYU SEKALIAN</t>
+  </si>
+  <si>
+    <t>YOGA</t>
+  </si>
+  <si>
+    <t>KHOLIS</t>
+  </si>
+  <si>
+    <t>NGABLAK</t>
+  </si>
+  <si>
+    <t>SONOREJO</t>
+  </si>
+  <si>
+    <t>LELA</t>
+  </si>
+  <si>
+    <t>AGM</t>
+  </si>
+  <si>
+    <t>ABU</t>
+  </si>
+  <si>
+    <t>ABI</t>
+  </si>
+  <si>
+    <t>DIAH</t>
+  </si>
+  <si>
+    <t>ILHAM</t>
+  </si>
+  <si>
+    <t>AKMAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADDIN </t>
+  </si>
+  <si>
+    <t>IHYA ULUMUDIN</t>
+  </si>
+  <si>
+    <t>PPS BAKALAN</t>
+  </si>
+  <si>
+    <t>KOTAKU</t>
+  </si>
+  <si>
+    <t>MBAH JADI</t>
+  </si>
+  <si>
+    <t>ARDI</t>
+  </si>
+  <si>
+    <t>DANANG MARON</t>
+  </si>
+  <si>
+    <t>SENSUS</t>
+  </si>
+  <si>
+    <t>DITA YUNI</t>
+  </si>
+  <si>
+    <t>MAS KHOLIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAS BUDI </t>
+  </si>
+  <si>
+    <t>MBAK RATNA</t>
+  </si>
+  <si>
+    <t>PRAYUDO</t>
+  </si>
+  <si>
+    <t>SULUNG BOGI YUNANTO</t>
+  </si>
+  <si>
+    <t>RANNY</t>
+  </si>
+  <si>
+    <t>ROSITA</t>
   </si>
 </sst>
 </file>
@@ -1135,4440 +1852,5589 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J151"/>
+  <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="B139" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C165" sqref="C165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="15.88671875" customWidth="1"/>
     <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12.33203125" customWidth="1"/>
-    <col min="8" max="8" width="45.6640625" customWidth="1"/>
+    <col min="4" max="7" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>99</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H23" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H24" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H27" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="C34" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
         <v>125</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H34" t="s">
-        <v>158</v>
-      </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H35" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H36" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H37" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H39" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H41" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>167</v>
+        <v>480</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="C44" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H44" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="C46" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>56</v>
       </c>
       <c r="C47" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H47" t="s">
-        <v>171</v>
+        <v>257</v>
       </c>
       <c r="I47">
         <v>1</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H48" t="s">
-        <v>172</v>
+        <v>258</v>
       </c>
       <c r="I48">
         <v>1</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>281</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H49" t="s">
-        <v>173</v>
+        <v>259</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>59</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H50" t="s">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>1</v>
+        <v>261</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H52" t="s">
-        <v>2</v>
+        <v>262</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H53" t="s">
-        <v>3</v>
+        <v>263</v>
       </c>
       <c r="I53">
         <v>1</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H54" t="s">
-        <v>4</v>
+        <v>265</v>
       </c>
       <c r="I54">
         <v>1</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H55" t="s">
-        <v>5</v>
+        <v>267</v>
       </c>
       <c r="I55">
         <v>1</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="C56" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H56" t="s">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>7</v>
+        <v>266</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H58" t="s">
-        <v>8</v>
+        <v>268</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H59" t="s">
-        <v>9</v>
+        <v>269</v>
       </c>
       <c r="I59">
         <v>1</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="C60" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H60" t="s">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="I60">
         <v>1</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H61" t="s">
-        <v>11</v>
+        <v>271</v>
       </c>
       <c r="I61">
         <v>1</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>12</v>
+        <v>272</v>
       </c>
       <c r="I62">
         <v>1</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C63" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>273</v>
       </c>
       <c r="I63">
         <v>1</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C64" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>274</v>
       </c>
       <c r="I64">
         <v>1</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="I65">
         <v>1</v>
       </c>
       <c r="J65" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H66" t="s">
-        <v>16</v>
+        <v>278</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>17</v>
+        <v>277</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C68" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H68" t="s">
-        <v>18</v>
+        <v>276</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C69" t="s">
-        <v>174</v>
+        <v>281</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>19</v>
+        <v>279</v>
       </c>
       <c r="I69">
         <v>1</v>
       </c>
       <c r="J69" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="C70" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H70" t="s">
-        <v>20</v>
+        <v>280</v>
       </c>
       <c r="I70">
         <v>1</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>113</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="C72" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H72" t="s">
-        <v>22</v>
+        <v>284</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="C73" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H73" t="s">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H74" t="s">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="C75" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H75" t="s">
-        <v>25</v>
+        <v>287</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C76" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H76" t="s">
-        <v>26</v>
+        <v>288</v>
       </c>
       <c r="I76">
         <v>1</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C77" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H77" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="I77">
         <v>1</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C78" t="s">
-        <v>175</v>
+        <v>281</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H78" t="s">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="I78">
         <v>1</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="C79" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H79" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C80" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>30</v>
+        <v>292</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C81" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H81" t="s">
-        <v>31</v>
+        <v>293</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="H82" t="s">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>176</v>
+        <v>134</v>
+      </c>
+      <c r="C83" t="s">
+        <v>282</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>295</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>177</v>
+        <v>135</v>
+      </c>
+      <c r="C84" t="s">
+        <v>282</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>481</v>
       </c>
       <c r="I84">
         <v>1</v>
       </c>
       <c r="J84" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>178</v>
+        <v>136</v>
+      </c>
+      <c r="C85" t="s">
+        <v>282</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H85" t="s">
+        <v>296</v>
       </c>
       <c r="I85">
         <v>1</v>
       </c>
       <c r="J85" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>179</v>
+        <v>137</v>
+      </c>
+      <c r="C86" t="s">
+        <v>282</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>297</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>180</v>
+        <v>138</v>
+      </c>
+      <c r="C87" t="s">
+        <v>282</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>298</v>
       </c>
       <c r="I87">
         <v>1</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>181</v>
+        <v>139</v>
+      </c>
+      <c r="C88" t="s">
+        <v>304</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>300</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>182</v>
+        <v>140</v>
+      </c>
+      <c r="C89" t="s">
+        <v>304</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>301</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>183</v>
+        <v>141</v>
+      </c>
+      <c r="C90" t="s">
+        <v>304</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>302</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>184</v>
+        <v>142</v>
+      </c>
+      <c r="C91" t="s">
+        <v>304</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>308</v>
       </c>
       <c r="I91">
         <v>1</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>185</v>
+        <v>143</v>
+      </c>
+      <c r="C92" t="s">
+        <v>304</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>303</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>186</v>
+        <v>144</v>
+      </c>
+      <c r="C93" t="s">
+        <v>304</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>305</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>187</v>
+        <v>145</v>
+      </c>
+      <c r="C94" t="s">
+        <v>304</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>306</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>188</v>
+        <v>146</v>
+      </c>
+      <c r="C95" t="s">
+        <v>281</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H95" t="s">
+        <v>307</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>189</v>
+        <v>147</v>
+      </c>
+      <c r="C96" t="s">
+        <v>309</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>310</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>190</v>
+        <v>148</v>
+      </c>
+      <c r="C97" t="s">
+        <v>309</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>311</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>191</v>
+        <v>149</v>
+      </c>
+      <c r="C98" t="s">
+        <v>309</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H98" t="s">
+        <v>313</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>192</v>
+        <v>150</v>
+      </c>
+      <c r="C99" t="s">
+        <v>309</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>312</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>193</v>
+        <v>151</v>
+      </c>
+      <c r="C100" t="s">
+        <v>309</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H100" t="s">
+        <v>314</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>194</v>
+        <v>152</v>
+      </c>
+      <c r="C101" t="s">
+        <v>309</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>315</v>
       </c>
       <c r="I101">
         <v>1</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>195</v>
+        <v>153</v>
+      </c>
+      <c r="C102" t="s">
+        <v>309</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>316</v>
       </c>
       <c r="I102">
         <v>1</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>196</v>
+        <v>154</v>
+      </c>
+      <c r="C103" t="s">
+        <v>309</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>317</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>197</v>
+        <v>155</v>
+      </c>
+      <c r="C104" t="s">
+        <v>309</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>318</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>198</v>
+        <v>156</v>
+      </c>
+      <c r="C105" t="s">
+        <v>309</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>319</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>199</v>
+        <v>157</v>
+      </c>
+      <c r="C106" t="s">
+        <v>309</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>320</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>43</v>
+        <v>158</v>
+      </c>
+      <c r="C107" t="s">
+        <v>309</v>
+      </c>
+      <c r="H107" t="s">
+        <v>321</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G108" s="4" t="s">
-        <v>43</v>
+        <v>159</v>
+      </c>
+      <c r="C108" t="s">
+        <v>309</v>
+      </c>
+      <c r="H108" t="s">
+        <v>322</v>
       </c>
       <c r="I108">
         <v>1</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E109" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>43</v>
+        <v>160</v>
+      </c>
+      <c r="C109" t="s">
+        <v>309</v>
+      </c>
+      <c r="H109" t="s">
+        <v>323</v>
       </c>
       <c r="I109">
         <v>1</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D110" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G110" s="4" t="s">
-        <v>43</v>
+        <v>161</v>
+      </c>
+      <c r="C110" t="s">
+        <v>309</v>
+      </c>
+      <c r="H110" t="s">
+        <v>324</v>
       </c>
       <c r="I110">
         <v>1</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>43</v>
+        <v>162</v>
+      </c>
+      <c r="C111" t="s">
+        <v>309</v>
+      </c>
+      <c r="H111" t="s">
+        <v>325</v>
       </c>
       <c r="I111">
         <v>1</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="D112" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G112" s="4" t="s">
-        <v>43</v>
+        <v>163</v>
+      </c>
+      <c r="C112" t="s">
+        <v>309</v>
+      </c>
+      <c r="H112" t="s">
+        <v>326</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E113" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F113" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>43</v>
+        <v>164</v>
+      </c>
+      <c r="C113" t="s">
+        <v>309</v>
+      </c>
+      <c r="H113" t="s">
+        <v>327</v>
       </c>
       <c r="I113">
         <v>1</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D114" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>43</v>
+        <v>165</v>
+      </c>
+      <c r="C114" t="s">
+        <v>309</v>
+      </c>
+      <c r="H114" t="s">
+        <v>482</v>
       </c>
       <c r="I114">
         <v>1</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D115" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E115" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G115" s="4" t="s">
-        <v>43</v>
+        <v>166</v>
+      </c>
+      <c r="C115" t="s">
+        <v>309</v>
+      </c>
+      <c r="H115" t="s">
+        <v>428</v>
       </c>
       <c r="I115">
         <v>1</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E116" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>43</v>
+        <v>167</v>
+      </c>
+      <c r="C116" t="s">
+        <v>309</v>
+      </c>
+      <c r="H116" t="s">
+        <v>429</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G117" s="4" t="s">
-        <v>43</v>
+        <v>168</v>
+      </c>
+      <c r="C117" t="s">
+        <v>309</v>
+      </c>
+      <c r="H117" t="s">
+        <v>430</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G118" s="4" t="s">
-        <v>43</v>
+        <v>169</v>
+      </c>
+      <c r="C118" t="s">
+        <v>299</v>
+      </c>
+      <c r="H118" t="s">
+        <v>431</v>
       </c>
       <c r="I118">
         <v>1</v>
       </c>
       <c r="J118" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E119" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F119" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G119" s="4" t="s">
-        <v>43</v>
+        <v>170</v>
+      </c>
+      <c r="C119" t="s">
+        <v>299</v>
+      </c>
+      <c r="H119" t="s">
+        <v>432</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>43</v>
+        <v>171</v>
+      </c>
+      <c r="C120" t="s">
+        <v>299</v>
+      </c>
+      <c r="H120" t="s">
+        <v>433</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G121" s="4" t="s">
-        <v>43</v>
+        <v>172</v>
+      </c>
+      <c r="C121" t="s">
+        <v>299</v>
+      </c>
+      <c r="H121" t="s">
+        <v>434</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G122" s="4" t="s">
-        <v>43</v>
+        <v>173</v>
+      </c>
+      <c r="C122" t="s">
+        <v>299</v>
+      </c>
+      <c r="H122" t="s">
+        <v>435</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G123" s="4" t="s">
-        <v>43</v>
+        <v>174</v>
+      </c>
+      <c r="C123" t="s">
+        <v>299</v>
+      </c>
+      <c r="H123" t="s">
+        <v>436</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>43</v>
+        <v>175</v>
+      </c>
+      <c r="C124" t="s">
+        <v>299</v>
+      </c>
+      <c r="H124" t="s">
+        <v>437</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D125" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G125" s="4" t="s">
-        <v>43</v>
+        <v>176</v>
+      </c>
+      <c r="C125" t="s">
+        <v>299</v>
+      </c>
+      <c r="H125" t="s">
+        <v>438</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D126" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G126" s="4" t="s">
-        <v>43</v>
+        <v>177</v>
+      </c>
+      <c r="C126" t="s">
+        <v>299</v>
+      </c>
+      <c r="H126" t="s">
+        <v>439</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D127" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G127" s="4" t="s">
-        <v>43</v>
+        <v>178</v>
+      </c>
+      <c r="C127" t="s">
+        <v>299</v>
+      </c>
+      <c r="H127" t="s">
+        <v>440</v>
       </c>
       <c r="I127">
         <v>1</v>
       </c>
       <c r="J127" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D128" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>43</v>
+        <v>179</v>
+      </c>
+      <c r="C128" t="s">
+        <v>299</v>
+      </c>
+      <c r="H128" t="s">
+        <v>441</v>
       </c>
       <c r="I128">
         <v>1</v>
       </c>
       <c r="J128" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D129" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G129" s="4" t="s">
-        <v>43</v>
+        <v>180</v>
+      </c>
+      <c r="C129" t="s">
+        <v>299</v>
+      </c>
+      <c r="H129" t="s">
+        <v>306</v>
       </c>
       <c r="I129">
         <v>1</v>
       </c>
       <c r="J129" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>43</v>
+        <v>181</v>
+      </c>
+      <c r="C130" t="s">
+        <v>299</v>
+      </c>
+      <c r="H130" t="s">
+        <v>442</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D131" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>43</v>
+        <v>182</v>
+      </c>
+      <c r="C131" t="s">
+        <v>299</v>
+      </c>
+      <c r="H131" t="s">
+        <v>443</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D132" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>43</v>
+        <v>183</v>
+      </c>
+      <c r="C132" t="s">
+        <v>299</v>
+      </c>
+      <c r="H132" t="s">
+        <v>444</v>
       </c>
       <c r="I132">
         <v>1</v>
       </c>
       <c r="J132" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D133" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G133" s="4" t="s">
-        <v>43</v>
+        <v>184</v>
+      </c>
+      <c r="C133" t="s">
+        <v>445</v>
+      </c>
+      <c r="H133" t="s">
+        <v>455</v>
       </c>
       <c r="I133">
         <v>1</v>
       </c>
       <c r="J133" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>43</v>
+        <v>185</v>
+      </c>
+      <c r="C134" t="s">
+        <v>445</v>
+      </c>
+      <c r="H134" t="s">
+        <v>446</v>
       </c>
       <c r="I134">
         <v>1</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E135" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>43</v>
+        <v>186</v>
+      </c>
+      <c r="C135" t="s">
+        <v>445</v>
+      </c>
+      <c r="H135" t="s">
+        <v>447</v>
       </c>
       <c r="I135">
         <v>1</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>43</v>
+        <v>187</v>
+      </c>
+      <c r="C136" t="s">
+        <v>445</v>
+      </c>
+      <c r="H136" t="s">
+        <v>448</v>
       </c>
       <c r="I136">
         <v>1</v>
       </c>
       <c r="J136" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>43</v>
+        <v>188</v>
+      </c>
+      <c r="C137" t="s">
+        <v>445</v>
+      </c>
+      <c r="H137" t="s">
+        <v>449</v>
       </c>
       <c r="I137">
         <v>1</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>43</v>
+        <v>189</v>
+      </c>
+      <c r="C138" t="s">
+        <v>445</v>
+      </c>
+      <c r="H138" t="s">
+        <v>450</v>
       </c>
       <c r="I138">
         <v>1</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>43</v>
+        <v>190</v>
+      </c>
+      <c r="C139" t="s">
+        <v>445</v>
+      </c>
+      <c r="H139" t="s">
+        <v>437</v>
       </c>
       <c r="I139">
         <v>1</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>43</v>
+        <v>191</v>
+      </c>
+      <c r="C140" t="s">
+        <v>445</v>
+      </c>
+      <c r="H140" t="s">
+        <v>451</v>
       </c>
       <c r="I140">
         <v>1</v>
       </c>
       <c r="J140" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D141" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>43</v>
+        <v>192</v>
+      </c>
+      <c r="C141" t="s">
+        <v>445</v>
+      </c>
+      <c r="H141" t="s">
+        <v>452</v>
       </c>
       <c r="I141">
         <v>1</v>
       </c>
       <c r="J141" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D142" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G142" s="4" t="s">
-        <v>43</v>
+        <v>193</v>
+      </c>
+      <c r="C142" t="s">
+        <v>445</v>
+      </c>
+      <c r="H142" t="s">
+        <v>453</v>
       </c>
       <c r="I142">
         <v>1</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E143" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F143" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G143" s="4" t="s">
-        <v>43</v>
+        <v>194</v>
+      </c>
+      <c r="C143" t="s">
+        <v>445</v>
+      </c>
+      <c r="H143" t="s">
+        <v>454</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>43</v>
+        <v>195</v>
+      </c>
+      <c r="C144" t="s">
+        <v>445</v>
+      </c>
+      <c r="H144" t="s">
+        <v>456</v>
       </c>
       <c r="I144">
         <v>1</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>43</v>
+        <v>196</v>
+      </c>
+      <c r="C145" t="s">
+        <v>458</v>
+      </c>
+      <c r="H145" t="s">
+        <v>457</v>
       </c>
       <c r="I145">
         <v>1</v>
       </c>
       <c r="J145" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E146" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>43</v>
+        <v>197</v>
+      </c>
+      <c r="C146" t="s">
+        <v>459</v>
+      </c>
+      <c r="H146" t="s">
+        <v>460</v>
       </c>
       <c r="I146">
         <v>1</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>43</v>
+        <v>198</v>
+      </c>
+      <c r="C147" t="s">
+        <v>461</v>
+      </c>
+      <c r="H147" t="s">
+        <v>462</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D148" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E148" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F148" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G148" s="4" t="s">
-        <v>43</v>
+        <v>199</v>
+      </c>
+      <c r="C148" t="s">
+        <v>461</v>
+      </c>
+      <c r="H148" t="s">
+        <v>433</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D149" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E149" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F149" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>43</v>
+        <v>200</v>
+      </c>
+      <c r="C149" t="s">
+        <v>461</v>
+      </c>
+      <c r="H149" t="s">
+        <v>463</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>43</v>
+        <v>201</v>
+      </c>
+      <c r="C150" t="s">
+        <v>461</v>
+      </c>
+      <c r="H150" t="s">
+        <v>442</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C151" t="s">
+        <v>461</v>
+      </c>
+      <c r="H151" t="s">
+        <v>464</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C152" t="s">
+        <v>461</v>
+      </c>
+      <c r="H152" t="s">
+        <v>465</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C153" t="s">
+        <v>461</v>
+      </c>
+      <c r="H153" t="s">
+        <v>466</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C154" t="s">
+        <v>469</v>
+      </c>
+      <c r="H154" t="s">
+        <v>467</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" t="s">
+        <v>469</v>
+      </c>
+      <c r="H155" t="s">
+        <v>203</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C156" t="s">
+        <v>469</v>
+      </c>
+      <c r="H156" t="s">
+        <v>468</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C157" t="s">
+        <v>470</v>
+      </c>
+      <c r="H157" t="s">
+        <v>471</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C158" t="s">
+        <v>281</v>
+      </c>
+      <c r="H158" t="s">
+        <v>472</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C159" t="s">
+        <v>309</v>
+      </c>
+      <c r="H159" t="s">
+        <v>473</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C160" t="s">
+        <v>474</v>
+      </c>
+      <c r="H160" t="s">
+        <v>475</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H161" t="s">
+        <v>476</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H162" t="s">
+        <v>477</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C163" t="s">
+        <v>470</v>
+      </c>
+      <c r="H163" t="s">
+        <v>478</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C164" t="s">
+        <v>281</v>
+      </c>
+      <c r="H164" t="s">
+        <v>479</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I182">
+        <v>1</v>
+      </c>
+      <c r="J182" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D151" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I151">
-        <v>1</v>
-      </c>
-      <c r="J151" s="4" t="s">
-        <v>43</v>
+      <c r="I192">
+        <v>1</v>
+      </c>
+      <c r="J192" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="I194">
+        <v>1</v>
+      </c>
+      <c r="J194" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I195">
+        <v>1</v>
+      </c>
+      <c r="J195" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="I196">
+        <v>1</v>
+      </c>
+      <c r="J196" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="I201">
+        <v>1</v>
+      </c>
+      <c r="J201" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B202" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B203" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B204" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B205" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B206" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B207" s="2" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B208" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B209" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B210" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B212" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B213" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B214" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B215" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B216" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B217" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B218" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B219" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B220" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B221" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B222" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B224" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B225" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B226" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B227" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B228" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B233" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B234" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B235" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B236" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B237" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B238" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B239" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B240" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B241" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B242" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B243" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B252" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B253" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B256" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B275" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B294" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" s="2" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1" xr:uid="{BAF4D641-A945-4D8D-8EDA-51CA04FB18EF}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
